--- a/result-senticircle.xlsx
+++ b/result-senticircle.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hilmi Raditya\tugas-akhir\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -32,13 +37,22 @@
   </si>
   <si>
     <t>Apex AD2600 Progressive-scan DVD player</t>
+  </si>
+  <si>
+    <t>Canon G3</t>
+  </si>
+  <si>
+    <t>Nikon coolpix 4300</t>
+  </si>
+  <si>
+    <t>Nokia 6610</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +115,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -147,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,9 +201,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,6 +236,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,14 +412,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,6 +456,133 @@
       </c>
       <c r="F2">
         <v>125</v>
+      </c>
+      <c r="H2">
+        <f>C2/(C2+E2)</f>
+        <v>0.83221476510067116</v>
+      </c>
+      <c r="I2">
+        <f>C2/(C2+F2)</f>
+        <v>0.49799196787148592</v>
+      </c>
+      <c r="J2">
+        <f>2*((H2*I2)/(H2+I2))</f>
+        <v>0.62311557788944716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>154</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="0">C3/(C3+E3)</f>
+        <v>0.83243243243243248</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="1">C3/(C3+F3)</f>
+        <v>0.81914893617021278</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="2">2*((H3*I3)/(H3+I3))</f>
+        <v>0.82573726541554959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>113</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.87596899224806202</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.8188405797101449</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0.84644194756554314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>146</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>44</v>
+      </c>
+      <c r="F6">
+        <v>53</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.76842105263157889</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.73366834170854267</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0.75064267352185088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f>AVERAGE(H2:H6)</f>
+        <v>0.82725931060318625</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:J8" si="3">AVERAGE(I2:I6)</f>
+        <v>0.71741245636509654</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0.76148436609809766</v>
       </c>
     </row>
   </sheetData>

--- a/result-senticircle.xlsx
+++ b/result-senticircle.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hilmi Raditya\tugas-akhir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Farza Nurifan\Documents\OneDrive\Dokumen\Code Paper\Tugas Akhir\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0AF65E-9EFF-4EE4-B977-D790FDEE55A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5115" yWindow="3075" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -46,12 +55,15 @@
   </si>
   <si>
     <t>Nokia 6610</t>
+  </si>
+  <si>
+    <t>Creative Labs Nomad Jukebox Zen Xtra 40GB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,6 +214,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -237,6 +266,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,11 +458,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +552,21 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>316</v>
+      </c>
+      <c r="D4">
+        <v>119</v>
+      </c>
+      <c r="E4">
+        <v>110</v>
+      </c>
+      <c r="F4">
+        <v>176</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
